--- a/XYZ.xlsx
+++ b/XYZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11264933-7369-4C22-9191-C6A40826F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F8CE95-CBB6-4224-9FCF-27D95C7FBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{993E1CB9-6C29-4F74-831D-210C447B6FF6}"/>
+    <workbookView xWindow="1005" yWindow="405" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{993E1CB9-6C29-4F74-831D-210C447B6FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67338871-36D9-4410-9561-C7A7B2E935BD}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>54</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
       </c>
       <c r="H4" s="2">
         <f>H3*H2</f>
-        <v>33447.599999999999</v>
+        <v>36234.9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
       </c>
       <c r="H7" s="2">
         <f>H4+H6-H5</f>
-        <v>31075.599999999999</v>
+        <v>33862.9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9">
         <f>H7/H8</f>
-        <v>34.024379562043791</v>
+        <v>37.076167883211681</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="I10" s="3">
         <f>$H$7/H10</f>
-        <v>49.470520437338017</v>
+        <v>53.907737469832725</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" s="3">
         <f>$H$7/H11</f>
-        <v>12.367630109334504</v>
+        <v>13.476934367458181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="I12" s="3">
         <f>$H$7/H12</f>
-        <v>11.243300099395004</v>
+        <v>12.251758515871073</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
   <dimension ref="A1:CB48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2089,17 @@
       <c r="Q31" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="R31" s="4">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="J32" s="4">
+        <f>J25/J24</f>
+        <v>-1.7088994565217355</v>
       </c>
       <c r="K32" s="4">
         <v>0.21</v>
@@ -2194,7 +2201,7 @@
       </c>
       <c r="R36" s="4">
         <f>R35/Sheet1!H2-1</f>
-        <v>0.59784146435582697</v>
+        <v>0.4749305824823018</v>
       </c>
     </row>
     <row r="37" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/XYZ.xlsx
+++ b/XYZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4805AF2D-BFFD-4BF8-9A7C-4F1B8D66DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A40B17-226C-4990-8EDD-3576A9B7121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{993E1CB9-6C29-4F74-831D-210C447B6FF6}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{993E1CB9-6C29-4F74-831D-210C447B6FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,8 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -287,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,7 +296,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -742,7 +740,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,9 +760,10 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>50</v>
-      </c>
+      <c r="E2" s="4">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -790,7 +789,7 @@
       </c>
       <c r="E4" s="3">
         <f>E3*E2</f>
-        <v>30750</v>
+        <v>38130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,7 +830,7 @@
       </c>
       <c r="E7" s="3">
         <f>E4+E6-E5</f>
-        <v>29934.97</v>
+        <v>37314.97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -843,7 +842,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" s="2">
         <f>E7/E8</f>
-        <v>32.775514598540198</v>
+        <v>40.855806569343123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -855,7 +854,7 @@
       </c>
       <c r="F10" s="4">
         <f>$E$7/E10</f>
-        <v>47.654704822307551</v>
+        <v>59.4032290930394</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -868,7 +867,7 @@
       </c>
       <c r="F11" s="4">
         <f>$E$7/E11</f>
-        <v>11.913676205576888</v>
+        <v>14.85080727325985</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,7 +880,7 @@
       </c>
       <c r="F12" s="4">
         <f>$E$7/E12</f>
-        <v>10.830614732342625</v>
+        <v>13.500733884781681</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +896,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V44" sqref="V44"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,43 +1504,43 @@
         <v>68.3</v>
       </c>
       <c r="N11" s="3">
-        <f>M11*(1+N38)</f>
+        <f t="shared" ref="N11:W11" si="19">M11*(1+N38)</f>
         <v>73.112033870900888</v>
       </c>
       <c r="O11" s="3">
-        <f>N11*(1+O38)</f>
+        <f t="shared" si="19"/>
         <v>78.292893121761125</v>
       </c>
       <c r="P11" s="3">
-        <f>O11*(1+P38)</f>
+        <f t="shared" si="19"/>
         <v>83.873037811172836</v>
       </c>
       <c r="Q11" s="3">
-        <f>P11*(1+Q38)</f>
+        <f t="shared" si="19"/>
         <v>89.885596629083821</v>
       </c>
       <c r="R11" s="3">
-        <f>Q11*(1+R38)</f>
+        <f t="shared" si="19"/>
         <v>96.366610953670673</v>
       </c>
       <c r="S11" s="3">
-        <f>R11*(1+S38)</f>
+        <f t="shared" si="19"/>
         <v>99.565253929511115</v>
       </c>
       <c r="T11" s="3">
-        <f>S11*(1+T38)</f>
+        <f t="shared" si="19"/>
         <v>102.88675126765902</v>
       </c>
       <c r="U11" s="3">
-        <f>T11*(1+U38)</f>
+        <f t="shared" si="19"/>
         <v>106.33638637354763</v>
       </c>
       <c r="V11" s="3">
-        <f>U11*(1+V38)</f>
+        <f t="shared" si="19"/>
         <v>109.91968769740652</v>
       </c>
       <c r="W11" s="3">
-        <f>V11*(1+W38)</f>
+        <f t="shared" si="19"/>
         <v>113.64244065735944</v>
       </c>
     </row>
@@ -1550,55 +1549,55 @@
         <v>20</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" ref="K12:R12" si="19">SUM(K7:K11)</f>
+        <f t="shared" ref="K12:R12" si="20">SUM(K7:K11)</f>
         <v>11539.7</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14410.6</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15231.899999999998</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15705.937323870901</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16368.748401529761</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17063.456611880803</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17767.893979674445</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18612.870806947249</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" ref="S12:W12" si="20">SUM(S7:S11)</f>
+        <f t="shared" ref="S12:W12" si="21">SUM(S7:S11)</f>
         <v>19213.979765671658</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19835.425612598763</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20477.944805908824</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>21142.302985986003</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>21829.296259047987</v>
       </c>
     </row>
@@ -1630,43 +1629,43 @@
         <v>8889.1000000000022</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" ref="N15:R15" si="21">N6-N12</f>
+        <f t="shared" ref="N15:R15" si="22">N6-N12</f>
         <v>10114.492676129103</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11281.366898470244</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12557.356639119203</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13976.329684895562</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15420.204197642663</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" ref="S15:W15" si="22">S6-S12</f>
+        <f t="shared" ref="S15:W15" si="23">S6-S12</f>
         <v>15948.736047413822</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16500.318564959129</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17076.081192866332</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17677.210732156651</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18304.954269446418</v>
       </c>
     </row>
@@ -1684,43 +1683,43 @@
         <v>2914.4</v>
       </c>
       <c r="N16" s="3">
-        <f>M16*(1+N38)</f>
+        <f t="shared" ref="N16:W16" si="24">M16*(1+N38)</f>
         <v>3119.7322329919994</v>
       </c>
       <c r="O16" s="3">
-        <f>N16*(1+O38)</f>
+        <f t="shared" si="24"/>
         <v>3340.8024555499364</v>
       </c>
       <c r="P16" s="3">
-        <f>O16*(1+P38)</f>
+        <f t="shared" si="24"/>
         <v>3578.9104157669426</v>
       </c>
       <c r="Q16" s="3">
-        <f>P16*(1+Q38)</f>
+        <f t="shared" si="24"/>
         <v>3835.4697337599118</v>
       </c>
       <c r="R16" s="3">
-        <f>Q16*(1+R38)</f>
+        <f t="shared" si="24"/>
         <v>4112.0183157156353</v>
       </c>
       <c r="S16" s="3">
-        <f>R16*(1+S38)</f>
+        <f t="shared" si="24"/>
         <v>4248.5062379526689</v>
       </c>
       <c r="T16" s="3">
-        <f>S16*(1+T38)</f>
+        <f t="shared" si="24"/>
         <v>4390.2364259804617</v>
       </c>
       <c r="U16" s="3">
-        <f>T16*(1+U38)</f>
+        <f t="shared" si="24"/>
         <v>4537.4343257257287</v>
       </c>
       <c r="V16" s="3">
-        <f>U16*(1+V38)</f>
+        <f t="shared" si="24"/>
         <v>4690.3358393165681</v>
       </c>
       <c r="W16" s="3">
-        <f>V16*(1+W38)</f>
+        <f t="shared" si="24"/>
         <v>4849.1878338478537</v>
       </c>
     </row>
@@ -1738,43 +1737,43 @@
         <v>1984.2</v>
       </c>
       <c r="N17" s="3">
-        <f>M17*(1+N38)</f>
+        <f t="shared" ref="N17:W17" si="25">M17*(1+N38)</f>
         <v>2123.9955725716186</v>
       </c>
       <c r="O17" s="3">
-        <f>N17*(1+O38)</f>
+        <f t="shared" si="25"/>
         <v>2274.5059814377519</v>
       </c>
       <c r="P17" s="3">
-        <f>O17*(1+P38)</f>
+        <f t="shared" si="25"/>
         <v>2436.6161292083334</v>
       </c>
       <c r="Q17" s="3">
-        <f>P17*(1+Q38)</f>
+        <f t="shared" si="25"/>
         <v>2611.2884455553171</v>
       </c>
       <c r="R17" s="3">
-        <f>Q17*(1+R38)</f>
+        <f t="shared" si="25"/>
         <v>2799.569977368571</v>
       </c>
       <c r="S17" s="3">
-        <f>R17*(1+S38)</f>
+        <f t="shared" si="25"/>
         <v>2892.4945365583603</v>
       </c>
       <c r="T17" s="3">
-        <f>S17*(1+T38)</f>
+        <f t="shared" si="25"/>
         <v>2988.9881678666047</v>
       </c>
       <c r="U17" s="3">
-        <f>T17*(1+U38)</f>
+        <f t="shared" si="25"/>
         <v>3089.2043607963874</v>
       </c>
       <c r="V17" s="3">
-        <f>U17*(1+V38)</f>
+        <f t="shared" si="25"/>
         <v>3193.3037237070876</v>
       </c>
       <c r="W17" s="3">
-        <f>V17*(1+W38)</f>
+        <f t="shared" si="25"/>
         <v>3301.4543301952076</v>
       </c>
     </row>
@@ -1792,43 +1791,43 @@
         <v>2149.1</v>
       </c>
       <c r="N18" s="3">
-        <f>M18*(1+N38)</f>
+        <f t="shared" ref="N18:W18" si="26">M18*(1+N38)</f>
         <v>2300.5134991501182</v>
       </c>
       <c r="O18" s="3">
-        <f>N18*(1+O38)</f>
+        <f t="shared" si="26"/>
         <v>2463.5323075838478</v>
       </c>
       <c r="P18" s="3">
-        <f>O18*(1+P38)</f>
+        <f t="shared" si="26"/>
         <v>2639.1148691067574</v>
       </c>
       <c r="Q18" s="3">
-        <f>P18*(1+Q38)</f>
+        <f t="shared" si="26"/>
         <v>2828.3035975924454</v>
       </c>
       <c r="R18" s="3">
-        <f>Q18*(1+R38)</f>
+        <f t="shared" si="26"/>
         <v>3032.2325563767731</v>
       </c>
       <c r="S18" s="3">
-        <f>R18*(1+S38)</f>
+        <f t="shared" si="26"/>
         <v>3132.8797543178962</v>
       </c>
       <c r="T18" s="3">
-        <f>S18*(1+T38)</f>
+        <f t="shared" si="26"/>
         <v>3237.392637618243</v>
       </c>
       <c r="U18" s="3">
-        <f>T18*(1+U38)</f>
+        <f t="shared" si="26"/>
         <v>3345.937451762682</v>
       </c>
       <c r="V18" s="3">
-        <f>U18*(1+V38)</f>
+        <f t="shared" si="26"/>
         <v>3458.6881527159053</v>
       </c>
       <c r="W18" s="3">
-        <f>V18*(1+W38)</f>
+        <f t="shared" si="26"/>
         <v>3575.8267820897681</v>
       </c>
     </row>
@@ -1846,43 +1845,43 @@
         <v>794.2</v>
       </c>
       <c r="N19" s="3">
-        <f>M19*(1+N38)</f>
+        <f t="shared" ref="N19:W19" si="27">M19*(1+N38)</f>
         <v>850.15486530409203</v>
       </c>
       <c r="O19" s="3">
-        <f>N19*(1+O38)</f>
+        <f t="shared" si="27"/>
         <v>910.39847316695011</v>
       </c>
       <c r="P19" s="3">
-        <f>O19*(1+P38)</f>
+        <f t="shared" si="27"/>
         <v>975.28501653928959</v>
       </c>
       <c r="Q19" s="3">
-        <f>P19*(1+Q38)</f>
+        <f t="shared" si="27"/>
         <v>1045.1997195141785</v>
       </c>
       <c r="R19" s="3">
-        <f>Q19*(1+R38)</f>
+        <f t="shared" si="27"/>
         <v>1120.5616752475148</v>
       </c>
       <c r="S19" s="3">
-        <f>R19*(1+S38)</f>
+        <f t="shared" si="27"/>
         <v>1157.755851695721</v>
       </c>
       <c r="T19" s="3">
-        <f>S19*(1+T38)</f>
+        <f t="shared" si="27"/>
         <v>1196.3785923393093</v>
       </c>
       <c r="U19" s="3">
-        <f>T19*(1+U38)</f>
+        <f t="shared" si="27"/>
         <v>1236.4913332045614</v>
       </c>
       <c r="V19" s="3">
-        <f>U19*(1+V38)</f>
+        <f t="shared" si="27"/>
         <v>1278.1583597259191</v>
       </c>
       <c r="W19" s="3">
-        <f>V19*(1+W38)</f>
+        <f t="shared" si="27"/>
         <v>1321.4469453890906</v>
       </c>
     </row>
@@ -1900,43 +1899,43 @@
         <v>154.69999999999999</v>
       </c>
       <c r="N20" s="3">
-        <f>M20*(1+N38)</f>
+        <f t="shared" ref="N20:W20" si="28">M20*(1+N38)</f>
         <v>165.59929194477843</v>
       </c>
       <c r="O20" s="3">
-        <f>N20*(1+O38)</f>
+        <f t="shared" si="28"/>
         <v>177.33397607520419</v>
       </c>
       <c r="P20" s="3">
-        <f>O20*(1+P38)</f>
+        <f t="shared" si="28"/>
         <v>189.97304464697569</v>
       </c>
       <c r="Q20" s="3">
-        <f>P20*(1+Q38)</f>
+        <f t="shared" si="28"/>
         <v>203.59153438534801</v>
       </c>
       <c r="R20" s="3">
-        <f>Q20*(1+R38)</f>
+        <f t="shared" si="28"/>
         <v>218.27107927573726</v>
       </c>
       <c r="S20" s="3">
-        <f>R20*(1+S38)</f>
+        <f t="shared" si="28"/>
         <v>225.51602903214308</v>
       </c>
       <c r="T20" s="3">
-        <f>S20*(1+T38)</f>
+        <f t="shared" si="28"/>
         <v>233.03924481854838</v>
       </c>
       <c r="U20" s="3">
-        <f>T20*(1+U38)</f>
+        <f t="shared" si="28"/>
         <v>240.85269358693736</v>
       </c>
       <c r="V20" s="3">
-        <f>U20*(1+V38)</f>
+        <f t="shared" si="28"/>
         <v>248.96889731755186</v>
       </c>
       <c r="W20" s="3">
-        <f>V20*(1+W38)</f>
+        <f t="shared" si="28"/>
         <v>257.40096002479515</v>
       </c>
     </row>
@@ -1957,43 +1956,43 @@
         <v>7996.6</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" ref="N21:W21" si="23">SUM(N16:N20)</f>
+        <f t="shared" ref="N21:W21" si="29">SUM(N16:N20)</f>
         <v>8559.995461962606</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>9166.5731938136905</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>9819.8994752682993</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>10523.8530308072</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11282.65360398423</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11657.152409556791</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>12046.035068623167</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>12449.920165076297</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>12869.454972783033</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>13305.316851546717</v>
       </c>
     </row>
@@ -2014,43 +2013,43 @@
         <v>892.50000000000182</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" ref="N22:R22" si="24">N6-N12-N21</f>
+        <f t="shared" ref="N22:R22" si="30">N6-N12-N21</f>
         <v>1554.4972141664966</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2114.793704656553</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2737.4571638509042</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3452.4766540883611</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4137.5505936584323</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" ref="S22:W22" si="25">S6-S12-S21</f>
+        <f t="shared" ref="S22:W22" si="31">S6-S12-S21</f>
         <v>4291.5836378570311</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4454.2834963359619</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4626.1610277900345</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4807.7557593736183</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4999.6374178997012</v>
       </c>
     </row>
@@ -2068,44 +2067,44 @@
         <v>-9.3000000000000007</v>
       </c>
       <c r="N23" s="3">
-        <f>M49*$Z$29</f>
-        <v>48.901800000000037</v>
+        <f t="shared" ref="N23:W23" si="32">M49*$Z$29</f>
+        <v>32.601200000000027</v>
       </c>
       <c r="O23" s="3">
-        <f>N49*$Z$29</f>
-        <v>140.29554380749033</v>
+        <f t="shared" si="32"/>
+        <v>92.910939738326888</v>
       </c>
       <c r="P23" s="3">
-        <f>O49*$Z$29</f>
-        <v>268.83563096994078</v>
+        <f t="shared" si="32"/>
+        <v>176.80371622533232</v>
       </c>
       <c r="Q23" s="3">
-        <f>P49*$Z$29</f>
-        <v>422.15656350580383</v>
+        <f t="shared" si="32"/>
+        <v>275.88858614792434</v>
       </c>
       <c r="R23" s="3">
-        <f>Q49*$Z$29</f>
-        <v>605.81417801976716</v>
+        <f t="shared" si="32"/>
+        <v>393.704927739391</v>
       </c>
       <c r="S23" s="3">
-        <f>R49*$Z$29</f>
-        <v>830.64966819731387</v>
+        <f t="shared" si="32"/>
+        <v>536.89260221556219</v>
       </c>
       <c r="T23" s="3">
-        <f>S49*$Z$29</f>
-        <v>1073.4435269042899</v>
+        <f t="shared" si="32"/>
+        <v>689.47245140185612</v>
       </c>
       <c r="U23" s="3">
-        <f>T49*$Z$29</f>
-        <v>1335.4577878058778</v>
+        <f t="shared" si="32"/>
+        <v>852.01513935037121</v>
       </c>
       <c r="V23" s="3">
-        <f>U49*$Z$29</f>
-        <v>1618.0385196651239</v>
+        <f t="shared" si="32"/>
+        <v>1025.1255062320081</v>
       </c>
       <c r="W23" s="3">
-        <f>V49*$Z$29</f>
-        <v>1922.6211684915604</v>
+        <f t="shared" si="32"/>
+        <v>1209.4445542251458</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -2125,44 +2124,44 @@
         <v>883.20000000000186</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" ref="N24:R24" si="26">SUM(N22:N23)</f>
-        <v>1603.3990141664967</v>
+        <f t="shared" ref="N24:R24" si="33">SUM(N22:N23)</f>
+        <v>1587.0984141664967</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="26"/>
-        <v>2255.0892484640435</v>
+        <f t="shared" si="33"/>
+        <v>2207.7046443948798</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="26"/>
-        <v>3006.2927948208448</v>
+        <f t="shared" si="33"/>
+        <v>2914.2608800762364</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="26"/>
-        <v>3874.6332175941648</v>
+        <f t="shared" si="33"/>
+        <v>3728.3652402362854</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="26"/>
-        <v>4743.3647716781998</v>
+        <f t="shared" si="33"/>
+        <v>4531.255521397823</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" ref="S24:W24" si="27">SUM(S22:S23)</f>
-        <v>5122.2333060543451</v>
+        <f t="shared" ref="S24:W24" si="34">SUM(S22:S23)</f>
+        <v>4828.4762400725931</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="27"/>
-        <v>5527.7270232402516</v>
+        <f t="shared" si="34"/>
+        <v>5143.7559477378181</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="27"/>
-        <v>5961.6188155959126</v>
+        <f t="shared" si="34"/>
+        <v>5478.1761671404056</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="27"/>
-        <v>6425.7942790387424</v>
+        <f t="shared" si="34"/>
+        <v>5832.8812656056261</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="27"/>
-        <v>6922.2585863912618</v>
+        <f t="shared" si="34"/>
+        <v>6209.0819721248472</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -2180,43 +2179,43 @@
       </c>
       <c r="N25" s="3">
         <f>N32*N24</f>
-        <v>80.169950708324848</v>
+        <v>79.35492070832484</v>
       </c>
       <c r="O25" s="3">
         <f>O32*O24</f>
-        <v>112.75446242320218</v>
+        <v>110.385232219744</v>
       </c>
       <c r="P25" s="3">
         <f>P32*P24</f>
-        <v>450.94391922312673</v>
+        <v>437.13913201143544</v>
       </c>
       <c r="Q25" s="3">
         <f>Q32*Q24</f>
-        <v>813.67297569477455</v>
+        <v>782.95670044961992</v>
       </c>
       <c r="R25" s="3">
         <f>R32*R24</f>
-        <v>996.10660205242186</v>
+        <v>951.56365949354279</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" ref="S25:W25" si="28">S32*S24</f>
-        <v>1075.6689942714124</v>
+        <f t="shared" ref="S25:W25" si="35">S32*S24</f>
+        <v>1013.9800104152445</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="28"/>
-        <v>1160.8226748804527</v>
+        <f t="shared" si="35"/>
+        <v>1080.1887490249417</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="28"/>
-        <v>1251.9399512751415</v>
+        <f t="shared" si="35"/>
+        <v>1150.4169950994851</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="28"/>
-        <v>1349.4167985981358</v>
+        <f t="shared" si="35"/>
+        <v>1224.9050657771813</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="28"/>
-        <v>1453.6743031421649</v>
+        <f t="shared" si="35"/>
+        <v>1303.9072141462179</v>
       </c>
     </row>
     <row r="26" spans="1:83" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2236,284 +2235,284 @@
         <v>2392.5000000000018</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" ref="N26:AA26" si="29">N24-N25</f>
-        <v>1523.2290634581718</v>
+        <f t="shared" ref="N26:W26" si="36">N24-N25</f>
+        <v>1507.7434934581718</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="29"/>
-        <v>2142.3347860408412</v>
+        <f t="shared" si="36"/>
+        <v>2097.3194121751358</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="29"/>
-        <v>2555.3488755977182</v>
+        <f t="shared" si="36"/>
+        <v>2477.1217480648011</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="29"/>
-        <v>3060.96024189939</v>
+        <f t="shared" si="36"/>
+        <v>2945.4085397866656</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="29"/>
-        <v>3747.258169625778</v>
+        <f t="shared" si="36"/>
+        <v>3579.6918619042804</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="29"/>
-        <v>4046.5643117829327</v>
+        <f t="shared" si="36"/>
+        <v>3814.4962296573485</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="29"/>
-        <v>4366.9043483597989</v>
+        <f t="shared" si="36"/>
+        <v>4063.5671987128762</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="29"/>
-        <v>4709.678864320771</v>
+        <f t="shared" si="36"/>
+        <v>4327.75917204092</v>
       </c>
       <c r="V26" s="7">
-        <f t="shared" si="29"/>
-        <v>5076.3774804406066</v>
+        <f t="shared" si="36"/>
+        <v>4607.9761998284448</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="29"/>
-        <v>5468.5842832490971</v>
+        <f t="shared" si="36"/>
+        <v>4905.1747579786297</v>
       </c>
       <c r="X26" s="7">
-        <f>W26*(1+$Z$30)</f>
-        <v>5523.2701260815884</v>
+        <f t="shared" ref="X26:BC26" si="37">W26*(1+$Z$30)</f>
+        <v>4954.2265055584157</v>
       </c>
       <c r="Y26" s="7">
-        <f>X26*(1+$Z$30)</f>
-        <v>5578.5028273424041</v>
+        <f t="shared" si="37"/>
+        <v>5003.7687706139995</v>
       </c>
       <c r="Z26" s="7">
-        <f>Y26*(1+$Z$30)</f>
-        <v>5634.2878556158284</v>
+        <f t="shared" si="37"/>
+        <v>5053.8064583201394</v>
       </c>
       <c r="AA26" s="7">
-        <f>Z26*(1+$Z$30)</f>
-        <v>5690.6307341719867</v>
+        <f t="shared" si="37"/>
+        <v>5104.3445229033405</v>
       </c>
       <c r="AB26" s="7">
-        <f>AA26*(1+$Z$30)</f>
-        <v>5747.5370415137068</v>
+        <f t="shared" si="37"/>
+        <v>5155.3879681323742</v>
       </c>
       <c r="AC26" s="7">
-        <f>AB26*(1+$Z$30)</f>
-        <v>5805.0124119288439</v>
+        <f t="shared" si="37"/>
+        <v>5206.9418478136977</v>
       </c>
       <c r="AD26" s="7">
-        <f>AC26*(1+$Z$30)</f>
-        <v>5863.0625360481326</v>
+        <f t="shared" si="37"/>
+        <v>5259.0112662918345</v>
       </c>
       <c r="AE26" s="7">
-        <f>AD26*(1+$Z$30)</f>
-        <v>5921.6931614086143</v>
+        <f t="shared" si="37"/>
+        <v>5311.6013789547533</v>
       </c>
       <c r="AF26" s="7">
-        <f>AE26*(1+$Z$30)</f>
-        <v>5980.9100930227005</v>
+        <f t="shared" si="37"/>
+        <v>5364.7173927443009</v>
       </c>
       <c r="AG26" s="7">
-        <f>AF26*(1+$Z$30)</f>
-        <v>6040.7191939529275</v>
+        <f t="shared" si="37"/>
+        <v>5418.3645666717439</v>
       </c>
       <c r="AH26" s="7">
-        <f>AG26*(1+$Z$30)</f>
-        <v>6101.1263858924567</v>
+        <f t="shared" si="37"/>
+        <v>5472.5482123384618</v>
       </c>
       <c r="AI26" s="7">
-        <f>AH26*(1+$Z$30)</f>
-        <v>6162.1376497513811</v>
+        <f t="shared" si="37"/>
+        <v>5527.2736944618464</v>
       </c>
       <c r="AJ26" s="7">
-        <f>AI26*(1+$Z$30)</f>
-        <v>6223.7590262488948</v>
+        <f t="shared" si="37"/>
+        <v>5582.5464314064648</v>
       </c>
       <c r="AK26" s="7">
-        <f>AJ26*(1+$Z$30)</f>
-        <v>6285.9966165113838</v>
+        <f t="shared" si="37"/>
+        <v>5638.3718957205292</v>
       </c>
       <c r="AL26" s="7">
-        <f>AK26*(1+$Z$30)</f>
-        <v>6348.856582676498</v>
+        <f t="shared" si="37"/>
+        <v>5694.7556146777342</v>
       </c>
       <c r="AM26" s="7">
-        <f>AL26*(1+$Z$30)</f>
-        <v>6412.3451485032629</v>
+        <f t="shared" si="37"/>
+        <v>5751.7031708245113</v>
       </c>
       <c r="AN26" s="7">
-        <f>AM26*(1+$Z$30)</f>
-        <v>6476.4685999882959</v>
+        <f t="shared" si="37"/>
+        <v>5809.220202532756</v>
       </c>
       <c r="AO26" s="7">
-        <f>AN26*(1+$Z$30)</f>
-        <v>6541.233285988179</v>
+        <f t="shared" si="37"/>
+        <v>5867.3124045580835</v>
       </c>
       <c r="AP26" s="7">
-        <f>AO26*(1+$Z$30)</f>
-        <v>6606.6456188480606</v>
+        <f t="shared" si="37"/>
+        <v>5925.9855286036645</v>
       </c>
       <c r="AQ26" s="7">
-        <f>AP26*(1+$Z$30)</f>
-        <v>6672.7120750365411</v>
+        <f t="shared" si="37"/>
+        <v>5985.2453838897009</v>
       </c>
       <c r="AR26" s="7">
-        <f>AQ26*(1+$Z$30)</f>
-        <v>6739.4391957869066</v>
+        <f t="shared" si="37"/>
+        <v>6045.0978377285983</v>
       </c>
       <c r="AS26" s="7">
-        <f>AR26*(1+$Z$30)</f>
-        <v>6806.8335877447753</v>
+        <f t="shared" si="37"/>
+        <v>6105.5488161058847</v>
       </c>
       <c r="AT26" s="7">
-        <f>AS26*(1+$Z$30)</f>
-        <v>6874.901923622223</v>
+        <f t="shared" si="37"/>
+        <v>6166.6043042669435</v>
       </c>
       <c r="AU26" s="7">
-        <f>AT26*(1+$Z$30)</f>
-        <v>6943.650942858445</v>
+        <f t="shared" si="37"/>
+        <v>6228.2703473096126</v>
       </c>
       <c r="AV26" s="7">
-        <f>AU26*(1+$Z$30)</f>
-        <v>7013.0874522870299</v>
+        <f t="shared" si="37"/>
+        <v>6290.5530507827089</v>
       </c>
       <c r="AW26" s="7">
-        <f>AV26*(1+$Z$30)</f>
-        <v>7083.2183268099006</v>
+        <f t="shared" si="37"/>
+        <v>6353.4585812905361</v>
       </c>
       <c r="AX26" s="7">
-        <f>AW26*(1+$Z$30)</f>
-        <v>7154.0505100780001</v>
+        <f t="shared" si="37"/>
+        <v>6416.9931671034419</v>
       </c>
       <c r="AY26" s="7">
-        <f>AX26*(1+$Z$30)</f>
-        <v>7225.5910151787803</v>
+        <f t="shared" si="37"/>
+        <v>6481.1630987744766</v>
       </c>
       <c r="AZ26" s="7">
-        <f>AY26*(1+$Z$30)</f>
-        <v>7297.8469253305684</v>
+        <f t="shared" si="37"/>
+        <v>6545.9747297622216</v>
       </c>
       <c r="BA26" s="7">
-        <f>AZ26*(1+$Z$30)</f>
-        <v>7370.8253945838742</v>
+        <f t="shared" si="37"/>
+        <v>6611.4344770598436</v>
       </c>
       <c r="BB26" s="7">
-        <f>BA26*(1+$Z$30)</f>
-        <v>7444.533648529713</v>
+        <f t="shared" si="37"/>
+        <v>6677.5488218304417</v>
       </c>
       <c r="BC26" s="7">
-        <f>BB26*(1+$Z$30)</f>
-        <v>7518.97898501501</v>
+        <f t="shared" si="37"/>
+        <v>6744.3243100487462</v>
       </c>
       <c r="BD26" s="7">
-        <f>BC26*(1+$Z$30)</f>
-        <v>7594.1687748651602</v>
+        <f t="shared" ref="BD26:CE26" si="38">BC26*(1+$Z$30)</f>
+        <v>6811.7675531492341</v>
       </c>
       <c r="BE26" s="7">
-        <f>BD26*(1+$Z$30)</f>
-        <v>7670.1104626138122</v>
+        <f t="shared" si="38"/>
+        <v>6879.8852286807269</v>
       </c>
       <c r="BF26" s="7">
-        <f>BE26*(1+$Z$30)</f>
-        <v>7746.8115672399499</v>
+        <f t="shared" si="38"/>
+        <v>6948.6840809675341</v>
       </c>
       <c r="BG26" s="7">
-        <f>BF26*(1+$Z$30)</f>
-        <v>7824.2796829123499</v>
+        <f t="shared" si="38"/>
+        <v>7018.1709217772095</v>
       </c>
       <c r="BH26" s="7">
-        <f>BG26*(1+$Z$30)</f>
-        <v>7902.5224797414739</v>
+        <f t="shared" si="38"/>
+        <v>7088.3526309949821</v>
       </c>
       <c r="BI26" s="7">
-        <f>BH26*(1+$Z$30)</f>
-        <v>7981.5477045388889</v>
+        <f t="shared" si="38"/>
+        <v>7159.236157304932</v>
       </c>
       <c r="BJ26" s="7">
-        <f>BI26*(1+$Z$30)</f>
-        <v>8061.3631815842782</v>
+        <f t="shared" si="38"/>
+        <v>7230.828518877981</v>
       </c>
       <c r="BK26" s="7">
-        <f>BJ26*(1+$Z$30)</f>
-        <v>8141.9768134001215</v>
+        <f t="shared" si="38"/>
+        <v>7303.1368040667612</v>
       </c>
       <c r="BL26" s="7">
-        <f>BK26*(1+$Z$30)</f>
-        <v>8223.3965815341235</v>
+        <f t="shared" si="38"/>
+        <v>7376.1681721074292</v>
       </c>
       <c r="BM26" s="7">
-        <f>BL26*(1+$Z$30)</f>
-        <v>8305.6305473494649</v>
+        <f t="shared" si="38"/>
+        <v>7449.9298538285038</v>
       </c>
       <c r="BN26" s="7">
-        <f>BM26*(1+$Z$30)</f>
-        <v>8388.6868528229588</v>
+        <f t="shared" si="38"/>
+        <v>7524.4291523667889</v>
       </c>
       <c r="BO26" s="7">
-        <f>BN26*(1+$Z$30)</f>
-        <v>8472.5737213511893</v>
+        <f t="shared" si="38"/>
+        <v>7599.6734438904568</v>
       </c>
       <c r="BP26" s="7">
-        <f>BO26*(1+$Z$30)</f>
-        <v>8557.2994585647011</v>
+        <f t="shared" si="38"/>
+        <v>7675.6701783293611</v>
       </c>
       <c r="BQ26" s="7">
-        <f>BP26*(1+$Z$30)</f>
-        <v>8642.8724531503485</v>
+        <f t="shared" si="38"/>
+        <v>7752.4268801126545</v>
       </c>
       <c r="BR26" s="7">
-        <f>BQ26*(1+$Z$30)</f>
-        <v>8729.3011776818512</v>
+        <f t="shared" si="38"/>
+        <v>7829.9511489137813</v>
       </c>
       <c r="BS26" s="7">
-        <f>BR26*(1+$Z$30)</f>
-        <v>8816.5941894586704</v>
+        <f t="shared" si="38"/>
+        <v>7908.2506604029195</v>
       </c>
       <c r="BT26" s="7">
-        <f>BS26*(1+$Z$30)</f>
-        <v>8904.7601313532577</v>
+        <f t="shared" si="38"/>
+        <v>7987.3331670069483</v>
       </c>
       <c r="BU26" s="7">
-        <f>BT26*(1+$Z$30)</f>
-        <v>8993.8077326667899</v>
+        <f t="shared" si="38"/>
+        <v>8067.2064986770183</v>
       </c>
       <c r="BV26" s="7">
-        <f>BU26*(1+$Z$30)</f>
-        <v>9083.7458099934574</v>
+        <f t="shared" si="38"/>
+        <v>8147.8785636637886</v>
       </c>
       <c r="BW26" s="7">
-        <f>BV26*(1+$Z$30)</f>
-        <v>9174.5832680933927</v>
+        <f t="shared" si="38"/>
+        <v>8229.357349300426</v>
       </c>
       <c r="BX26" s="7">
-        <f>BW26*(1+$Z$30)</f>
-        <v>9266.3291007743264</v>
+        <f t="shared" si="38"/>
+        <v>8311.6509227934312</v>
       </c>
       <c r="BY26" s="7">
-        <f>BX26*(1+$Z$30)</f>
-        <v>9358.9923917820706</v>
+        <f t="shared" si="38"/>
+        <v>8394.7674320213664</v>
       </c>
       <c r="BZ26" s="7">
-        <f>BY26*(1+$Z$30)</f>
-        <v>9452.5823156998922</v>
+        <f t="shared" si="38"/>
+        <v>8478.7151063415804</v>
       </c>
       <c r="CA26" s="7">
-        <f>BZ26*(1+$Z$30)</f>
-        <v>9547.1081388568909</v>
+        <f t="shared" si="38"/>
+        <v>8563.5022574049963</v>
       </c>
       <c r="CB26" s="7">
-        <f>CA26*(1+$Z$30)</f>
-        <v>9642.5792202454595</v>
+        <f t="shared" si="38"/>
+        <v>8649.1372799790461</v>
       </c>
       <c r="CC26" s="7">
-        <f>CB26*(1+$Z$30)</f>
-        <v>9739.0050124479149</v>
+        <f t="shared" si="38"/>
+        <v>8735.6286527788361</v>
       </c>
       <c r="CD26" s="7">
-        <f>CC26*(1+$Z$30)</f>
-        <v>9836.3950625723937</v>
+        <f t="shared" si="38"/>
+        <v>8822.9849393066252</v>
       </c>
       <c r="CE26" s="7">
-        <f>CD26*(1+$Z$30)</f>
-        <v>9934.7590131981178</v>
+        <f t="shared" si="38"/>
+        <v>8911.2147886996918</v>
       </c>
     </row>
     <row r="27" spans="1:83" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2543,43 +2542,43 @@
       </c>
       <c r="N27" s="4">
         <f>N26/N28</f>
-        <v>2.4607900863621515</v>
+        <v>2.435773010433234</v>
       </c>
       <c r="O27" s="4">
         <f>O26/O28</f>
-        <v>3.4609608821338309</v>
+        <v>3.3882381456787329</v>
       </c>
       <c r="P27" s="4">
         <f>P26/P28</f>
-        <v>4.1281888135665881</v>
+        <v>4.0018121939657529</v>
       </c>
       <c r="Q27" s="4">
         <f>Q26/Q28</f>
-        <v>4.9450084683350406</v>
+        <v>4.7583336668605263</v>
       </c>
       <c r="R27" s="4">
         <f>R26/R28</f>
-        <v>6.0537288685392214</v>
+        <v>5.7830240095384173</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" ref="S27:W27" si="30">S26/S28</f>
-        <v>6.5372606006186311</v>
+        <f t="shared" ref="S27:W27" si="39">S26/S28</f>
+        <v>6.162352551950482</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="30"/>
-        <v>7.0547727760255228</v>
+        <f t="shared" si="39"/>
+        <v>6.5647289155296873</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="30"/>
-        <v>7.6085280522144929</v>
+        <f t="shared" si="39"/>
+        <v>6.9915333958657833</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="30"/>
-        <v>8.2009329247828866</v>
+        <f t="shared" si="39"/>
+        <v>7.4442264940685696</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="30"/>
-        <v>8.8345464995946639</v>
+        <f t="shared" si="39"/>
+        <v>7.9243534054582065</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -2600,39 +2599,39 @@
         <v>619</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" ref="O28:W28" si="31">N28</f>
+        <f t="shared" ref="O28:W28" si="40">N28</f>
         <v>619</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>619</v>
       </c>
     </row>
@@ -2640,8 +2639,8 @@
       <c r="Y29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z29" s="6">
-        <v>0.06</v>
+      <c r="Z29" s="9">
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
@@ -2649,61 +2648,61 @@
         <v>13</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30:R30" si="32">K15/K6</f>
+        <f t="shared" ref="K30:R30" si="41">K15/K6</f>
         <v>0.34177863565530658</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.34245012685028009</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.36852120558849144</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.39172440877743325</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.40800433474034165</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.4239369301818634</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.44027946099984988</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.45309464970658686</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" ref="S30:W30" si="33">S15/S6</f>
+        <f t="shared" ref="S30:W30" si="42">S15/S6</f>
         <v>0.45356951755923947</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.45410707661108668</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.45470707171112029</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.45536919551609545</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.45609308828254602</v>
       </c>
       <c r="Y30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="Z30" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2712,62 +2711,62 @@
         <v>14</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ref="K31:R31" si="34">K26/K6</f>
+        <f t="shared" ref="K31:R31" si="43">K26/K6</f>
         <v>-3.432993148387721E-2</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>-1.0198214970158319E-2</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>9.9187430040213992E-2</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="34"/>
-        <v>5.8993171820073159E-2</v>
+        <f t="shared" si="43"/>
+        <v>5.8393430839771901E-2</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="34"/>
-        <v>7.7480139333843609E-2</v>
+        <f t="shared" si="43"/>
+        <v>7.5852103668267001E-2</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="34"/>
-        <v>8.6268694041054014E-2</v>
+        <f t="shared" si="43"/>
+        <v>8.3627742664397403E-2</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="34"/>
-        <v>9.6425739505979893E-2</v>
+        <f t="shared" si="43"/>
+        <v>9.2785653569914223E-2</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="34"/>
-        <v>0.11010636473843165</v>
+        <f t="shared" si="43"/>
+        <v>0.10518273360316401</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" ref="S31:W31" si="35">S26/S6</f>
-        <v>0.11508110844717634</v>
+        <f t="shared" ref="S31:W31" si="44">S26/S6</f>
+        <v>0.10848127459591216</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.12018205343533152</v>
+        <f t="shared" si="44"/>
+        <v>0.11183387847668369</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.12541075794308656</v>
+        <f t="shared" si="44"/>
+        <v>0.11524088448418479</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.13076870352624009</v>
+        <f t="shared" si="44"/>
+        <v>0.11870257400145806</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.13625729174552609</v>
+        <f t="shared" si="44"/>
+        <v>0.12221916924787389</v>
       </c>
       <c r="Y31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z31" s="10">
-        <v>8.5000000000000006E-2</v>
+      <c r="Z31" s="9">
+        <v>0.09</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
@@ -2821,7 +2820,7 @@
       </c>
       <c r="Z32" s="3">
         <f>NPV(Z31,O47:CF47)+Sheet1!E5-Sheet1!E6</f>
-        <v>63992.496592795185</v>
+        <v>54605.786298592357</v>
       </c>
     </row>
     <row r="33" spans="1:124" x14ac:dyDescent="0.2">
@@ -2841,13 +2840,13 @@
       <c r="Y33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z33" s="9">
+      <c r="Z33" s="4">
         <f>Z32/Sheet1!E3</f>
-        <v>104.05283998828486</v>
+        <v>88.789896420475372</v>
       </c>
     </row>
     <row r="34" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K34" s="6">
@@ -2867,11 +2866,11 @@
         <v>0.42145153242511751</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:W34" si="36">N34*1.02</f>
+        <f t="shared" ref="O34:P34" si="45">N34*1.02</f>
         <v>0.42988056307361988</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.43847817433509229</v>
       </c>
       <c r="Q34" s="6">
@@ -2900,23 +2899,23 @@
       </c>
       <c r="Z34" s="6">
         <f>Z33/Sheet1!E2-1</f>
-        <v>1.081056799765697</v>
+        <v>0.43209510355605429</v>
       </c>
     </row>
     <row r="35" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ref="K35:W37" si="37">(K3-K8)/K3</f>
+        <f t="shared" ref="K35:M35" si="46">(K3-K8)/K3</f>
         <v>0.81070989281321382</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.81915287309917917</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.84147498883430105</v>
       </c>
       <c r="N35" s="6">
@@ -2952,7 +2951,7 @@
       <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K36" s="6">
@@ -3030,51 +3029,51 @@
         <v>-0.01</v>
       </c>
       <c r="L38" s="8">
-        <f>L6/K6-1</f>
+        <f t="shared" ref="L38:W38" si="47">L6/K6-1</f>
         <v>0.25005989171577792</v>
       </c>
       <c r="M38" s="8">
-        <f>M6/L6-1</f>
+        <f t="shared" si="47"/>
         <v>0.10063151362499778</v>
       </c>
       <c r="N38" s="8">
-        <f>N6/M6-1</f>
+        <f t="shared" si="47"/>
         <v>7.04543758550642E-2</v>
       </c>
       <c r="O38" s="8">
-        <f>O6/N6-1</f>
+        <f t="shared" si="47"/>
         <v>7.0861922129104693E-2</v>
       </c>
       <c r="P38" s="8">
-        <f>P6/O6-1</f>
+        <f t="shared" si="47"/>
         <v>7.1272684747177184E-2</v>
       </c>
       <c r="Q38" s="8">
-        <f>Q6/P6-1</f>
+        <f t="shared" si="47"/>
         <v>7.168643195501434E-2</v>
       </c>
       <c r="R38" s="8">
-        <f>R6/Q6-1</f>
+        <f t="shared" si="47"/>
         <v>7.2102923801362628E-2</v>
       </c>
       <c r="S38" s="8">
-        <f>S6/R6-1</f>
+        <f t="shared" si="47"/>
         <v>3.3192440246531341E-2</v>
       </c>
       <c r="T38" s="8">
-        <f>T6/S6-1</f>
+        <f t="shared" si="47"/>
         <v>3.3360004690988099E-2</v>
       </c>
       <c r="U38" s="8">
-        <f>U6/T6-1</f>
+        <f t="shared" si="47"/>
         <v>3.3528467595544953E-2</v>
       </c>
       <c r="V38" s="8">
-        <f>V6/U6-1</f>
+        <f t="shared" si="47"/>
         <v>3.3697791001390254E-2</v>
       </c>
       <c r="W38" s="8">
-        <f>W6/V6-1</f>
+        <f t="shared" si="47"/>
         <v>3.3867936108053165E-2</v>
       </c>
     </row>
@@ -3098,56 +3097,56 @@
         <v>27</v>
       </c>
       <c r="K43" s="6">
-        <f>K31+K38</f>
+        <f t="shared" ref="K43:R43" si="48">K31+K38</f>
         <v>-4.4329931483877212E-2</v>
       </c>
       <c r="L43" s="6">
-        <f>L31+L38</f>
+        <f t="shared" si="48"/>
         <v>0.23986167674561959</v>
       </c>
       <c r="M43" s="6">
-        <f>M31+M38</f>
+        <f t="shared" si="48"/>
         <v>0.19981894366521177</v>
       </c>
       <c r="N43" s="6">
-        <f>N31+N38</f>
-        <v>0.12944754767513736</v>
+        <f t="shared" si="48"/>
+        <v>0.12884780669483609</v>
       </c>
       <c r="O43" s="6">
-        <f>O31+O38</f>
-        <v>0.14834206146294832</v>
+        <f t="shared" si="48"/>
+        <v>0.14671402579737169</v>
       </c>
       <c r="P43" s="6">
-        <f>P31+P38</f>
-        <v>0.15754137878823121</v>
+        <f t="shared" si="48"/>
+        <v>0.15490042741157459</v>
       </c>
       <c r="Q43" s="6">
-        <f>Q31+Q38</f>
-        <v>0.16811217146099422</v>
+        <f t="shared" si="48"/>
+        <v>0.16447208552492856</v>
       </c>
       <c r="R43" s="6">
-        <f>R31+R38</f>
-        <v>0.18220928853979429</v>
+        <f t="shared" si="48"/>
+        <v>0.17728565740452662</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" ref="S43:W43" si="38">S31+S38</f>
-        <v>0.14827354869370768</v>
+        <f t="shared" ref="S43:W43" si="49">S31+S38</f>
+        <v>0.14167371484244351</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="38"/>
-        <v>0.1535420581263196</v>
+        <f t="shared" si="49"/>
+        <v>0.14519388316767179</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="38"/>
-        <v>0.15893922553863152</v>
+        <f t="shared" si="49"/>
+        <v>0.14876935207972974</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="38"/>
-        <v>0.16446649452763035</v>
+        <f t="shared" si="49"/>
+        <v>0.15240036500284831</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" si="38"/>
-        <v>0.17012522785357925</v>
+        <f t="shared" si="49"/>
+        <v>0.15608710535592707</v>
       </c>
     </row>
     <row r="44" spans="1:124" x14ac:dyDescent="0.2">
@@ -3208,456 +3207,456 @@
         <v>5.0999999999999943</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" ref="L47:M47" si="39">L45-L46</f>
+        <f t="shared" ref="L47:M47" si="50">L45-L46</f>
         <v>-50.099999999999994</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>1553.3</v>
       </c>
       <c r="N47" s="7">
         <f>N26*1.1</f>
-        <v>1675.5519698039891</v>
+        <v>1658.517842803989</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:W47" si="40">O26*1.1</f>
-        <v>2356.5682646449254</v>
+        <f t="shared" ref="O47:W47" si="51">O26*1.1</f>
+        <v>2307.0513533926496</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="40"/>
-        <v>2810.8837631574902</v>
+        <f t="shared" si="51"/>
+        <v>2724.8339228712812</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="40"/>
-        <v>3367.0562660893293</v>
+        <f t="shared" si="51"/>
+        <v>3239.9493937653324</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="40"/>
-        <v>4121.9839865883559</v>
+        <f t="shared" si="51"/>
+        <v>3937.6610480947088</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="40"/>
-        <v>4451.2207429612263</v>
+        <f t="shared" si="51"/>
+        <v>4195.9458526230837</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="40"/>
-        <v>4803.5947831957792</v>
+        <f t="shared" si="51"/>
+        <v>4469.9239185841643</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="40"/>
-        <v>5180.6467507528487</v>
+        <f t="shared" si="51"/>
+        <v>4760.5350892450124</v>
       </c>
       <c r="V47" s="7">
-        <f t="shared" si="40"/>
-        <v>5584.0152284846681</v>
+        <f t="shared" si="51"/>
+        <v>5068.7738198112893</v>
       </c>
       <c r="W47" s="7">
-        <f t="shared" si="40"/>
-        <v>6015.4427115740073</v>
+        <f t="shared" si="51"/>
+        <v>5395.6922337764927</v>
       </c>
       <c r="X47" s="7">
         <f>W47*(1+$Z$30)</f>
-        <v>6075.5971386897472</v>
+        <v>5449.6491561142575</v>
       </c>
       <c r="Y47" s="7">
-        <f t="shared" ref="Y47:CJ47" si="41">X47*(1+$Z$30)</f>
-        <v>6136.353110076645</v>
+        <f t="shared" ref="Y47:CJ47" si="52">X47*(1+$Z$30)</f>
+        <v>5504.1456476754001</v>
       </c>
       <c r="Z47" s="7">
-        <f t="shared" si="41"/>
-        <v>6197.7166411774115</v>
+        <f t="shared" si="52"/>
+        <v>5559.1871041521545</v>
       </c>
       <c r="AA47" s="7">
-        <f t="shared" si="41"/>
-        <v>6259.6938075891858</v>
+        <f t="shared" si="52"/>
+        <v>5614.7789751936762</v>
       </c>
       <c r="AB47" s="7">
-        <f t="shared" si="41"/>
-        <v>6322.2907456650773</v>
+        <f t="shared" si="52"/>
+        <v>5670.9267649456133</v>
       </c>
       <c r="AC47" s="7">
-        <f t="shared" si="41"/>
-        <v>6385.5136531217286</v>
+        <f t="shared" si="52"/>
+        <v>5727.6360325950691</v>
       </c>
       <c r="AD47" s="7">
-        <f t="shared" si="41"/>
-        <v>6449.3687896529464</v>
+        <f t="shared" si="52"/>
+        <v>5784.91239292102</v>
       </c>
       <c r="AE47" s="7">
-        <f t="shared" si="41"/>
-        <v>6513.8624775494754</v>
+        <f t="shared" si="52"/>
+        <v>5842.7615168502307</v>
       </c>
       <c r="AF47" s="7">
-        <f t="shared" si="41"/>
-        <v>6579.0011023249699</v>
+        <f t="shared" si="52"/>
+        <v>5901.1891320187333</v>
       </c>
       <c r="AG47" s="7">
-        <f t="shared" si="41"/>
-        <v>6644.7911133482194</v>
+        <f t="shared" si="52"/>
+        <v>5960.201023338921</v>
       </c>
       <c r="AH47" s="7">
-        <f t="shared" si="41"/>
-        <v>6711.2390244817016</v>
+        <f t="shared" si="52"/>
+        <v>6019.8030335723106</v>
       </c>
       <c r="AI47" s="7">
-        <f t="shared" si="41"/>
-        <v>6778.3514147265187</v>
+        <f t="shared" si="52"/>
+        <v>6080.0010639080338</v>
       </c>
       <c r="AJ47" s="7">
-        <f t="shared" si="41"/>
-        <v>6846.1349288737838</v>
+        <f t="shared" si="52"/>
+        <v>6140.8010745471138</v>
       </c>
       <c r="AK47" s="7">
-        <f t="shared" si="41"/>
-        <v>6914.5962781625221</v>
+        <f t="shared" si="52"/>
+        <v>6202.2090852925849</v>
       </c>
       <c r="AL47" s="7">
-        <f t="shared" si="41"/>
-        <v>6983.7422409441479</v>
+        <f t="shared" si="52"/>
+        <v>6264.2311761455112</v>
       </c>
       <c r="AM47" s="7">
-        <f t="shared" si="41"/>
-        <v>7053.5796633535892</v>
+        <f t="shared" si="52"/>
+        <v>6326.8734879069661</v>
       </c>
       <c r="AN47" s="7">
-        <f t="shared" si="41"/>
-        <v>7124.1154599871252</v>
+        <f t="shared" si="52"/>
+        <v>6390.1422227860357</v>
       </c>
       <c r="AO47" s="7">
-        <f t="shared" si="41"/>
-        <v>7195.3566145869963</v>
+        <f t="shared" si="52"/>
+        <v>6454.0436450138959</v>
       </c>
       <c r="AP47" s="7">
-        <f t="shared" si="41"/>
-        <v>7267.3101807328667</v>
+        <f t="shared" si="52"/>
+        <v>6518.5840814640351</v>
       </c>
       <c r="AQ47" s="7">
-        <f t="shared" si="41"/>
-        <v>7339.9832825401954</v>
+        <f t="shared" si="52"/>
+        <v>6583.769922278675</v>
       </c>
       <c r="AR47" s="7">
-        <f t="shared" si="41"/>
-        <v>7413.3831153655974</v>
+        <f t="shared" si="52"/>
+        <v>6649.6076215014618</v>
       </c>
       <c r="AS47" s="7">
-        <f t="shared" si="41"/>
-        <v>7487.516946519253</v>
+        <f t="shared" si="52"/>
+        <v>6716.1036977164767</v>
       </c>
       <c r="AT47" s="7">
-        <f t="shared" si="41"/>
-        <v>7562.3921159844458</v>
+        <f t="shared" si="52"/>
+        <v>6783.2647346936419</v>
       </c>
       <c r="AU47" s="7">
-        <f t="shared" si="41"/>
-        <v>7638.0160371442907</v>
+        <f t="shared" si="52"/>
+        <v>6851.0973820405779</v>
       </c>
       <c r="AV47" s="7">
-        <f t="shared" si="41"/>
-        <v>7714.3961975157335</v>
+        <f t="shared" si="52"/>
+        <v>6919.6083558609835</v>
       </c>
       <c r="AW47" s="7">
-        <f t="shared" si="41"/>
-        <v>7791.5401594908908</v>
+        <f t="shared" si="52"/>
+        <v>6988.8044394195931</v>
       </c>
       <c r="AX47" s="7">
-        <f t="shared" si="41"/>
-        <v>7869.4555610857997</v>
+        <f t="shared" si="52"/>
+        <v>7058.6924838137893</v>
       </c>
       <c r="AY47" s="7">
-        <f t="shared" si="41"/>
-        <v>7948.1501166966582</v>
+        <f t="shared" si="52"/>
+        <v>7129.279408651927</v>
       </c>
       <c r="AZ47" s="7">
-        <f t="shared" si="41"/>
-        <v>8027.6316178636253</v>
+        <f t="shared" si="52"/>
+        <v>7200.5722027384463</v>
       </c>
       <c r="BA47" s="7">
-        <f t="shared" si="41"/>
-        <v>8107.9079340422613</v>
+        <f t="shared" si="52"/>
+        <v>7272.5779247658311</v>
       </c>
       <c r="BB47" s="7">
-        <f t="shared" si="41"/>
-        <v>8188.9870133826844</v>
+        <f t="shared" si="52"/>
+        <v>7345.3037040134896</v>
       </c>
       <c r="BC47" s="7">
-        <f t="shared" si="41"/>
-        <v>8270.876883516512</v>
+        <f t="shared" si="52"/>
+        <v>7418.7567410536249</v>
       </c>
       <c r="BD47" s="7">
-        <f t="shared" si="41"/>
-        <v>8353.5856523516777</v>
+        <f t="shared" si="52"/>
+        <v>7492.9443084641616</v>
       </c>
       <c r="BE47" s="7">
-        <f t="shared" si="41"/>
-        <v>8437.1215088751942</v>
+        <f t="shared" si="52"/>
+        <v>7567.8737515488037</v>
       </c>
       <c r="BF47" s="7">
-        <f t="shared" si="41"/>
-        <v>8521.4927239639455</v>
+        <f t="shared" si="52"/>
+        <v>7643.5524890642919</v>
       </c>
       <c r="BG47" s="7">
-        <f t="shared" si="41"/>
-        <v>8606.7076512035856</v>
+        <f t="shared" si="52"/>
+        <v>7719.988013954935</v>
       </c>
       <c r="BH47" s="7">
-        <f t="shared" si="41"/>
-        <v>8692.7747277156213</v>
+        <f t="shared" si="52"/>
+        <v>7797.1878940944844</v>
       </c>
       <c r="BI47" s="7">
-        <f t="shared" si="41"/>
-        <v>8779.7024749927768</v>
+        <f t="shared" si="52"/>
+        <v>7875.1597730354297</v>
       </c>
       <c r="BJ47" s="7">
-        <f t="shared" si="41"/>
-        <v>8867.4994997427038</v>
+        <f t="shared" si="52"/>
+        <v>7953.9113707657843</v>
       </c>
       <c r="BK47" s="7">
-        <f t="shared" si="41"/>
-        <v>8956.1744947401312</v>
+        <f t="shared" si="52"/>
+        <v>8033.450484473442</v>
       </c>
       <c r="BL47" s="7">
-        <f t="shared" si="41"/>
-        <v>9045.7362396875324</v>
+        <f t="shared" si="52"/>
+        <v>8113.7849893181765</v>
       </c>
       <c r="BM47" s="7">
-        <f t="shared" si="41"/>
-        <v>9136.1936020844078</v>
+        <f t="shared" si="52"/>
+        <v>8194.9228392113582</v>
       </c>
       <c r="BN47" s="7">
-        <f t="shared" si="41"/>
-        <v>9227.5555381052527</v>
+        <f t="shared" si="52"/>
+        <v>8276.8720676034718</v>
       </c>
       <c r="BO47" s="7">
-        <f t="shared" si="41"/>
-        <v>9319.8310934863057</v>
+        <f t="shared" si="52"/>
+        <v>8359.6407882795065</v>
       </c>
       <c r="BP47" s="7">
-        <f t="shared" si="41"/>
-        <v>9413.0294044211696</v>
+        <f t="shared" si="52"/>
+        <v>8443.2371961623012</v>
       </c>
       <c r="BQ47" s="7">
-        <f t="shared" si="41"/>
-        <v>9507.1596984653806</v>
+        <f t="shared" si="52"/>
+        <v>8527.6695681239235</v>
       </c>
       <c r="BR47" s="7">
-        <f t="shared" si="41"/>
-        <v>9602.2312954500339</v>
+        <f t="shared" si="52"/>
+        <v>8612.9462638051627</v>
       </c>
       <c r="BS47" s="7">
-        <f t="shared" si="41"/>
-        <v>9698.253608404535</v>
+        <f t="shared" si="52"/>
+        <v>8699.0757264432141</v>
       </c>
       <c r="BT47" s="7">
-        <f t="shared" si="41"/>
-        <v>9795.236144488581</v>
+        <f t="shared" si="52"/>
+        <v>8786.0664837076456</v>
       </c>
       <c r="BU47" s="7">
-        <f t="shared" si="41"/>
-        <v>9893.1885059334672</v>
+        <f t="shared" si="52"/>
+        <v>8873.9271485447225</v>
       </c>
       <c r="BV47" s="7">
-        <f t="shared" si="41"/>
-        <v>9992.1203909928026</v>
+        <f t="shared" si="52"/>
+        <v>8962.6664200301693</v>
       </c>
       <c r="BW47" s="7">
-        <f t="shared" si="41"/>
-        <v>10092.04159490273</v>
+        <f t="shared" si="52"/>
+        <v>9052.2930842304704</v>
       </c>
       <c r="BX47" s="7">
-        <f t="shared" si="41"/>
-        <v>10192.962010851757</v>
+        <f t="shared" si="52"/>
+        <v>9142.8160150727745</v>
       </c>
       <c r="BY47" s="7">
-        <f t="shared" si="41"/>
-        <v>10294.891630960276</v>
+        <f t="shared" si="52"/>
+        <v>9234.2441752235027</v>
       </c>
       <c r="BZ47" s="7">
-        <f t="shared" si="41"/>
-        <v>10397.840547269878</v>
+        <f t="shared" si="52"/>
+        <v>9326.5866169757373</v>
       </c>
       <c r="CA47" s="7">
-        <f t="shared" si="41"/>
-        <v>10501.818952742577</v>
+        <f t="shared" si="52"/>
+        <v>9419.8524831454943</v>
       </c>
       <c r="CB47" s="7">
-        <f t="shared" si="41"/>
-        <v>10606.837142270002</v>
+        <f t="shared" si="52"/>
+        <v>9514.0510079769501</v>
       </c>
       <c r="CC47" s="7">
-        <f t="shared" si="41"/>
-        <v>10712.905513692702</v>
+        <f t="shared" si="52"/>
+        <v>9609.1915180567194</v>
       </c>
       <c r="CD47" s="7">
-        <f t="shared" si="41"/>
-        <v>10820.034568829629</v>
+        <f t="shared" si="52"/>
+        <v>9705.2834332372859</v>
       </c>
       <c r="CE47" s="7">
-        <f t="shared" si="41"/>
-        <v>10928.234914517925</v>
+        <f t="shared" si="52"/>
+        <v>9802.336267569659</v>
       </c>
       <c r="CF47" s="7">
-        <f t="shared" si="41"/>
-        <v>11037.517263663105</v>
+        <f t="shared" si="52"/>
+        <v>9900.3596302453552</v>
       </c>
       <c r="CG47" s="7">
-        <f t="shared" si="41"/>
-        <v>11147.892436299737</v>
+        <f t="shared" si="52"/>
+        <v>9999.3632265478082</v>
       </c>
       <c r="CH47" s="7">
-        <f t="shared" si="41"/>
-        <v>11259.371360662733</v>
+        <f t="shared" si="52"/>
+        <v>10099.356858813286</v>
       </c>
       <c r="CI47" s="7">
-        <f t="shared" si="41"/>
-        <v>11371.965074269361</v>
+        <f t="shared" si="52"/>
+        <v>10200.350427401419</v>
       </c>
       <c r="CJ47" s="7">
-        <f t="shared" si="41"/>
-        <v>11485.684725012055</v>
+        <f t="shared" si="52"/>
+        <v>10302.353931675434</v>
       </c>
       <c r="CK47" s="7">
-        <f t="shared" ref="CK47:DT47" si="42">CJ47*(1+$Z$30)</f>
-        <v>11600.541572262176</v>
+        <f t="shared" ref="CK47:DT47" si="53">CJ47*(1+$Z$30)</f>
+        <v>10405.377470992189</v>
       </c>
       <c r="CL47" s="7">
-        <f t="shared" si="42"/>
-        <v>11716.546987984799</v>
+        <f t="shared" si="53"/>
+        <v>10509.431245702111</v>
       </c>
       <c r="CM47" s="7">
-        <f t="shared" si="42"/>
-        <v>11833.712457864647</v>
+        <f t="shared" si="53"/>
+        <v>10614.525558159132</v>
       </c>
       <c r="CN47" s="7">
-        <f t="shared" si="42"/>
-        <v>11952.049582443293</v>
+        <f t="shared" si="53"/>
+        <v>10720.670813740724</v>
       </c>
       <c r="CO47" s="7">
-        <f t="shared" si="42"/>
-        <v>12071.570078267725</v>
+        <f t="shared" si="53"/>
+        <v>10827.877521878132</v>
       </c>
       <c r="CP47" s="7">
-        <f t="shared" si="42"/>
-        <v>12192.285779050402</v>
+        <f t="shared" si="53"/>
+        <v>10936.156297096913</v>
       </c>
       <c r="CQ47" s="7">
-        <f t="shared" si="42"/>
-        <v>12314.208636840905</v>
+        <f t="shared" si="53"/>
+        <v>11045.517860067883</v>
       </c>
       <c r="CR47" s="7">
-        <f t="shared" si="42"/>
-        <v>12437.350723209314</v>
+        <f t="shared" si="53"/>
+        <v>11155.973038668562</v>
       </c>
       <c r="CS47" s="7">
-        <f t="shared" si="42"/>
-        <v>12561.724230441407</v>
+        <f t="shared" si="53"/>
+        <v>11267.532769055248</v>
       </c>
       <c r="CT47" s="7">
-        <f t="shared" si="42"/>
-        <v>12687.34147274582</v>
+        <f t="shared" si="53"/>
+        <v>11380.208096745801</v>
       </c>
       <c r="CU47" s="7">
-        <f t="shared" si="42"/>
-        <v>12814.214887473279</v>
+        <f t="shared" si="53"/>
+        <v>11494.010177713259</v>
       </c>
       <c r="CV47" s="7">
-        <f t="shared" si="42"/>
-        <v>12942.357036348012</v>
+        <f t="shared" si="53"/>
+        <v>11608.950279490391</v>
       </c>
       <c r="CW47" s="7">
-        <f t="shared" si="42"/>
-        <v>13071.780606711493</v>
+        <f t="shared" si="53"/>
+        <v>11725.039782285296</v>
       </c>
       <c r="CX47" s="7">
-        <f t="shared" si="42"/>
-        <v>13202.498412778608</v>
+        <f t="shared" si="53"/>
+        <v>11842.290180108148</v>
       </c>
       <c r="CY47" s="7">
-        <f t="shared" si="42"/>
-        <v>13334.523396906394</v>
+        <f t="shared" si="53"/>
+        <v>11960.713081909229</v>
       </c>
       <c r="CZ47" s="7">
-        <f t="shared" si="42"/>
-        <v>13467.868630875459</v>
+        <f t="shared" si="53"/>
+        <v>12080.320212728322</v>
       </c>
       <c r="DA47" s="7">
-        <f t="shared" si="42"/>
-        <v>13602.547317184213</v>
+        <f t="shared" si="53"/>
+        <v>12201.123414855605</v>
       </c>
       <c r="DB47" s="7">
-        <f t="shared" si="42"/>
-        <v>13738.572790356055</v>
+        <f t="shared" si="53"/>
+        <v>12323.134649004161</v>
       </c>
       <c r="DC47" s="7">
-        <f t="shared" si="42"/>
-        <v>13875.958518259615</v>
+        <f t="shared" si="53"/>
+        <v>12446.365995494203</v>
       </c>
       <c r="DD47" s="7">
-        <f t="shared" si="42"/>
-        <v>14014.71810344221</v>
+        <f t="shared" si="53"/>
+        <v>12570.829655449144</v>
       </c>
       <c r="DE47" s="7">
-        <f t="shared" si="42"/>
-        <v>14154.865284476633</v>
+        <f t="shared" si="53"/>
+        <v>12696.537952003637</v>
       </c>
       <c r="DF47" s="7">
-        <f t="shared" si="42"/>
-        <v>14296.4139373214</v>
+        <f t="shared" si="53"/>
+        <v>12823.503331523672</v>
       </c>
       <c r="DG47" s="7">
-        <f t="shared" si="42"/>
-        <v>14439.378076694615</v>
+        <f t="shared" si="53"/>
+        <v>12951.73836483891</v>
       </c>
       <c r="DH47" s="7">
-        <f t="shared" si="42"/>
-        <v>14583.771857461561</v>
+        <f t="shared" si="53"/>
+        <v>13081.2557484873</v>
       </c>
       <c r="DI47" s="7">
-        <f t="shared" si="42"/>
-        <v>14729.609576036177</v>
+        <f t="shared" si="53"/>
+        <v>13212.068305972172</v>
       </c>
       <c r="DJ47" s="7">
-        <f t="shared" si="42"/>
-        <v>14876.90567179654</v>
+        <f t="shared" si="53"/>
+        <v>13344.188989031894</v>
       </c>
       <c r="DK47" s="7">
-        <f t="shared" si="42"/>
-        <v>15025.674728514505</v>
+        <f t="shared" si="53"/>
+        <v>13477.630878922213</v>
       </c>
       <c r="DL47" s="7">
-        <f t="shared" si="42"/>
-        <v>15175.931475799651</v>
+        <f t="shared" si="53"/>
+        <v>13612.407187711435</v>
       </c>
       <c r="DM47" s="7">
-        <f t="shared" si="42"/>
-        <v>15327.690790557648</v>
+        <f t="shared" si="53"/>
+        <v>13748.53125958855</v>
       </c>
       <c r="DN47" s="7">
-        <f t="shared" si="42"/>
-        <v>15480.967698463224</v>
+        <f t="shared" si="53"/>
+        <v>13886.016572184435</v>
       </c>
       <c r="DO47" s="7">
-        <f t="shared" si="42"/>
-        <v>15635.777375447857</v>
+        <f t="shared" si="53"/>
+        <v>14024.876737906279</v>
       </c>
       <c r="DP47" s="7">
-        <f t="shared" si="42"/>
-        <v>15792.135149202335</v>
+        <f t="shared" si="53"/>
+        <v>14165.125505285343</v>
       </c>
       <c r="DQ47" s="7">
-        <f t="shared" si="42"/>
-        <v>15950.056500694358</v>
+        <f t="shared" si="53"/>
+        <v>14306.776760338196</v>
       </c>
       <c r="DR47" s="7">
-        <f t="shared" si="42"/>
-        <v>16109.557065701301</v>
+        <f t="shared" si="53"/>
+        <v>14449.844527941579</v>
       </c>
       <c r="DS47" s="7">
-        <f t="shared" si="42"/>
-        <v>16270.652636358314</v>
+        <f t="shared" si="53"/>
+        <v>14594.342973220995</v>
       </c>
       <c r="DT47" s="7">
-        <f t="shared" si="42"/>
-        <v>16433.359162721899</v>
+        <f t="shared" si="53"/>
+        <v>14740.286402953205</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -3689,44 +3688,44 @@
         <v>815.03000000000065</v>
       </c>
       <c r="N49" s="3">
-        <f>M49+N26</f>
-        <v>2338.2590634581725</v>
+        <f t="shared" ref="N49:W49" si="54">M49+N26</f>
+        <v>2322.7734934581722</v>
       </c>
       <c r="O49" s="3">
-        <f>N49+O26</f>
-        <v>4480.5938494990132</v>
+        <f t="shared" si="54"/>
+        <v>4420.092905633308</v>
       </c>
       <c r="P49" s="3">
-        <f>O49+P26</f>
-        <v>7035.942725096731</v>
+        <f t="shared" si="54"/>
+        <v>6897.214653698109</v>
       </c>
       <c r="Q49" s="3">
-        <f>P49+Q26</f>
-        <v>10096.90296699612</v>
+        <f t="shared" si="54"/>
+        <v>9842.6231934847747</v>
       </c>
       <c r="R49" s="3">
-        <f>Q49+R26</f>
-        <v>13844.161136621899</v>
+        <f t="shared" si="54"/>
+        <v>13422.315055389055</v>
       </c>
       <c r="S49" s="3">
-        <f>R49+S26</f>
-        <v>17890.725448404832</v>
+        <f t="shared" si="54"/>
+        <v>17236.811285046402</v>
       </c>
       <c r="T49" s="3">
-        <f>S49+T26</f>
-        <v>22257.629796764631</v>
+        <f t="shared" si="54"/>
+        <v>21300.378483759279</v>
       </c>
       <c r="U49" s="3">
-        <f>T49+U26</f>
-        <v>26967.308661085401</v>
+        <f t="shared" si="54"/>
+        <v>25628.137655800201</v>
       </c>
       <c r="V49" s="3">
-        <f>U49+V26</f>
-        <v>32043.686141526006</v>
+        <f t="shared" si="54"/>
+        <v>30236.113855628646</v>
       </c>
       <c r="W49" s="3">
-        <f>V49+W26</f>
-        <v>37512.270424775103</v>
+        <f t="shared" si="54"/>
+        <v>35141.288613607278</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
